--- a/WorkMexc/Setting.xlsx
+++ b/WorkMexc/Setting.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GRIDBoViBotByBitMEXC\MyGridBot\WorkMexc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\BOTS\MyGridBot 2.6.5_TG\MyGridBot\WorkMexc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACCCA6AE-FB5C-4308-9BFB-4542A8EEF58A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FD66F4E-E3F4-4126-AFD0-B23107819A6D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="405" yWindow="780" windowWidth="37995" windowHeight="20310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -414,18 +414,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" customWidth="1"/>
+    <col min="1" max="1" width="18.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.44140625" customWidth="1"/>
     <col min="3" max="3" width="53" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -434,7 +432,7 @@
       </c>
       <c r="C1" s="3"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
